--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-02_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-02_end.xlsx
@@ -620,7 +620,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  No... You shouldn't have done that… Even if you are the L.G.D., you shouldn't have abandoned your partners.
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  No... You shouldn't have done that... Even if you are the L.G.D., you shouldn't have abandoned your partners.
 </t>
   </si>
   <si>
@@ -628,7 +628,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  What difference does it make whose fault it was…? Forget about it, Officer, there's no point talking about this any further.
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  What difference does it make whose fault it was...? Forget about it, Officer, there's no point talking about this any further.
 </t>
   </si>
   <si>
@@ -740,7 +740,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  *sigh*... Chen, you're either overthinking this, or you’re not even able to convince yourself.
+    <t xml:space="preserve">[name="Hoshiguma"]  *sigh*... Chen, you're either overthinking this, or you're not even able to convince yourself.
 </t>
   </si>
   <si>
@@ -804,7 +804,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch'en"]  You won't need to. She’s a bit like your grandfather, just without a ventilator.
+    <t xml:space="preserve">[name="Ch'en"]  You won't need to. She's a bit like your grandfather, just without a ventilator.
 </t>
   </si>
   <si>
